--- a/teaching/traditional_assets/database/data/china/china_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/china/china_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1027</v>
+        <v>0.0568</v>
       </c>
       <c r="E2">
-        <v>0.227</v>
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.055</v>
       </c>
       <c r="G2">
-        <v>0.09697481670969857</v>
+        <v>0.07824414296544473</v>
       </c>
       <c r="H2">
-        <v>0.09697481670969857</v>
+        <v>0.07814265364016532</v>
       </c>
       <c r="I2">
-        <v>0.09530460847732332</v>
+        <v>-0.01532268109854422</v>
       </c>
       <c r="J2">
-        <v>0.09293744108298499</v>
+        <v>-0.01096815237030588</v>
       </c>
       <c r="K2">
-        <v>3725.5</v>
+        <v>2294.64</v>
       </c>
       <c r="L2">
-        <v>0.06826773485988209</v>
+        <v>0.03507250984324179</v>
       </c>
       <c r="M2">
-        <v>1751.8</v>
+        <v>2112.7</v>
       </c>
       <c r="N2">
-        <v>0.03766096957970547</v>
+        <v>0.03979866138454206</v>
       </c>
       <c r="O2">
-        <v>0.4702187625822038</v>
+        <v>0.9207108740368859</v>
       </c>
       <c r="P2">
-        <v>1751.8</v>
+        <v>2112.7</v>
       </c>
       <c r="Q2">
-        <v>0.03766096957970547</v>
+        <v>0.03979866138454206</v>
       </c>
       <c r="R2">
-        <v>0.4702187625822038</v>
+        <v>0.9207108740368859</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2853.3</v>
+        <v>3669.11</v>
       </c>
       <c r="V2">
-        <v>0.06134150274105128</v>
+        <v>0.06911803212601748</v>
       </c>
       <c r="W2">
-        <v>0.03476747655519332</v>
+        <v>-0.002937129360070815</v>
       </c>
       <c r="X2">
-        <v>0.07265253438035615</v>
+        <v>0.04621400876221533</v>
       </c>
       <c r="Y2">
-        <v>-0.03788505782516283</v>
+        <v>-0.04915113812228614</v>
       </c>
       <c r="Z2">
-        <v>1.696252810182377</v>
+        <v>1.772524151494641</v>
       </c>
       <c r="AA2">
-        <v>0.04481534304933606</v>
+        <v>0.0350852411402208</v>
       </c>
       <c r="AB2">
-        <v>0.05150259285323848</v>
+        <v>0.04521857369030261</v>
       </c>
       <c r="AC2">
-        <v>-0.006687249803902409</v>
+        <v>-0.01013524529989606</v>
       </c>
       <c r="AD2">
-        <v>14399.6</v>
+        <v>18203.9</v>
       </c>
       <c r="AE2">
-        <v>521.2321831817981</v>
+        <v>28.65802240457297</v>
       </c>
       <c r="AF2">
-        <v>14920.8321831818</v>
+        <v>18232.55802240457</v>
       </c>
       <c r="AG2">
-        <v>12067.5321831818</v>
+        <v>14563.44802240457</v>
       </c>
       <c r="AH2">
-        <v>0.2428685614397262</v>
+        <v>0.2556542207031676</v>
       </c>
       <c r="AI2">
-        <v>0.3471330761309098</v>
+        <v>0.3689594406375784</v>
       </c>
       <c r="AJ2">
-        <v>0.2059919865779754</v>
+        <v>0.2152822870713514</v>
       </c>
       <c r="AK2">
-        <v>0.3007130007271578</v>
+        <v>0.3183472738016262</v>
       </c>
       <c r="AL2">
-        <v>1004.8</v>
+        <v>945.409</v>
       </c>
       <c r="AM2">
-        <v>1004.8</v>
+        <v>938.342</v>
       </c>
       <c r="AN2">
-        <v>2.574207157924845</v>
+        <v>-27.93954686238575</v>
       </c>
       <c r="AO2">
-        <v>5.099522292993631</v>
+        <v>-1.068267807901131</v>
       </c>
       <c r="AP2">
-        <v>2.15730490599982</v>
+        <v>-22.35214094231959</v>
       </c>
       <c r="AQ2">
-        <v>5.099522292993631</v>
+        <v>-1.076313327123799</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.125</v>
+        <v>0.112</v>
       </c>
       <c r="E3">
-        <v>0.227</v>
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.055</v>
       </c>
       <c r="G3">
-        <v>0.09811691532796581</v>
+        <v>0.08625517558907912</v>
       </c>
       <c r="H3">
-        <v>0.09811691532796581</v>
+        <v>0.08625517558907912</v>
       </c>
       <c r="I3">
-        <v>0.1031642989156264</v>
+        <v>0.09098550425434651</v>
       </c>
       <c r="J3">
-        <v>0.09803952754193251</v>
+        <v>0.07854289704941442</v>
       </c>
       <c r="K3">
-        <v>3947.7</v>
+        <v>3604.1</v>
       </c>
       <c r="L3">
-        <v>0.07531766321975045</v>
+        <v>0.0590529184014209</v>
       </c>
       <c r="M3">
-        <v>1689.4</v>
+        <v>2034.8</v>
       </c>
       <c r="N3">
-        <v>0.03745590716504411</v>
+        <v>0.03980048899755501</v>
       </c>
       <c r="O3">
-        <v>0.427945385920916</v>
+        <v>0.5645792292111762</v>
       </c>
       <c r="P3">
-        <v>1689.4</v>
+        <v>2034.8</v>
       </c>
       <c r="Q3">
-        <v>0.03745590716504411</v>
+        <v>0.03980048899755501</v>
       </c>
       <c r="R3">
-        <v>0.427945385920916</v>
+        <v>0.5645792292111762</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +779,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2697.4</v>
+        <v>3571.3</v>
       </c>
       <c r="V3">
-        <v>0.05980440629039303</v>
+        <v>0.06985427872860636</v>
       </c>
       <c r="W3">
-        <v>0.189630077961754</v>
+        <v>0.1513342151120069</v>
       </c>
       <c r="X3">
-        <v>0.05743345372540161</v>
+        <v>0.05450662685976319</v>
       </c>
       <c r="Y3">
-        <v>0.1321966242363524</v>
+        <v>0.09682758825224368</v>
       </c>
       <c r="Z3">
-        <v>1.764880252423135</v>
+        <v>1.842989406805252</v>
       </c>
       <c r="AA3">
-        <v>0.1730280261156507</v>
+        <v>0.1447537272418663</v>
       </c>
       <c r="AB3">
-        <v>0.05042746074836885</v>
+        <v>0.04522043886272945</v>
       </c>
       <c r="AC3">
-        <v>0.1226005653672819</v>
+        <v>0.09953328837913683</v>
       </c>
       <c r="AD3">
-        <v>12187.3</v>
+        <v>18150.6</v>
       </c>
       <c r="AE3">
-        <v>521.2321831817981</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12708.5321831818</v>
+        <v>18150.6</v>
       </c>
       <c r="AG3">
-        <v>10011.1321831818</v>
+        <v>14579.3</v>
       </c>
       <c r="AH3">
-        <v>0.2198242777222991</v>
+        <v>0.2620056701060691</v>
       </c>
       <c r="AI3">
-        <v>0.3417968931611217</v>
+        <v>0.3722955621374597</v>
       </c>
       <c r="AJ3">
-        <v>0.1816413438384138</v>
+        <v>0.2218926310758961</v>
       </c>
       <c r="AK3">
-        <v>0.2903112692528279</v>
+        <v>0.3226800997744672</v>
       </c>
       <c r="AL3">
-        <v>837.7</v>
+        <v>916.1</v>
       </c>
       <c r="AM3">
-        <v>837.7</v>
+        <v>916.1</v>
       </c>
       <c r="AN3">
-        <v>2.106961948723268</v>
+        <v>3.084895558917008</v>
       </c>
       <c r="AO3">
-        <v>6.363017786797182</v>
+        <v>6.06156533129571</v>
       </c>
       <c r="AP3">
-        <v>1.730742213090918</v>
+        <v>2.477913557795265</v>
       </c>
       <c r="AQ3">
-        <v>6.363017786797182</v>
+        <v>6.06156533129571</v>
       </c>
     </row>
     <row r="4">
@@ -850,127 +856,380 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Fanhua Inc. (NasdaqGS:FANH)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.0568</v>
+      </c>
+      <c r="G4">
+        <v>0.1384432560903149</v>
+      </c>
+      <c r="H4">
+        <v>0.1384432560903149</v>
+      </c>
+      <c r="I4">
+        <v>0.1141378180481062</v>
+      </c>
+      <c r="J4">
+        <v>0.05706890902405309</v>
+      </c>
+      <c r="K4">
+        <v>-0.626</v>
+      </c>
+      <c r="L4">
+        <v>-0.001239849475143593</v>
+      </c>
+      <c r="M4">
+        <v>61</v>
+      </c>
+      <c r="N4">
+        <v>0.09435421500386698</v>
+      </c>
+      <c r="O4">
+        <v>-97.44408945686901</v>
+      </c>
+      <c r="P4">
+        <v>61</v>
+      </c>
+      <c r="Q4">
+        <v>0.09435421500386698</v>
+      </c>
+      <c r="R4">
+        <v>-97.44408945686901</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>30.7</v>
+      </c>
+      <c r="V4">
+        <v>0.04748646558391338</v>
+      </c>
+      <c r="W4">
+        <v>-0.001986670898127578</v>
+      </c>
+      <c r="X4">
+        <v>0.04615449381698056</v>
+      </c>
+      <c r="Y4">
+        <v>-0.04814116471510813</v>
+      </c>
+      <c r="Z4">
+        <v>1.575060680291602</v>
+      </c>
+      <c r="AA4">
+        <v>0.08988699467092461</v>
+      </c>
+      <c r="AB4">
+        <v>0.04503533013651981</v>
+      </c>
+      <c r="AC4">
+        <v>0.04485166453440479</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>27.85907833755599</v>
+      </c>
+      <c r="AF4">
+        <v>27.85907833755599</v>
+      </c>
+      <c r="AG4">
+        <v>-2.840921662444011</v>
+      </c>
+      <c r="AH4">
+        <v>0.04131193489117811</v>
+      </c>
+      <c r="AI4">
+        <v>0.0868265236000185</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.004413705574978525</v>
+      </c>
+      <c r="AK4">
+        <v>-0.009790910829745021</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>-7.04</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>-0.04317510125294849</v>
+      </c>
+      <c r="AQ4">
+        <v>-7.201704545454546</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Huize Holding Limited (NasdaqGM:HUIZ)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>0.04589041095890411</v>
+      </c>
+      <c r="H5">
+        <v>0.004545454545454545</v>
+      </c>
+      <c r="I5">
+        <v>-0.003884114653819401</v>
+      </c>
+      <c r="J5">
+        <v>-0.0019420573269097</v>
+      </c>
+      <c r="K5">
+        <v>0.166</v>
+      </c>
+      <c r="L5">
+        <v>0.001033623910336239</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>65.7</v>
+      </c>
+      <c r="V5">
+        <v>0.1805441055234955</v>
+      </c>
+      <c r="W5">
+        <v>-0.003887587822014052</v>
+      </c>
+      <c r="X5">
+        <v>0.0462735237074501</v>
+      </c>
+      <c r="Y5">
+        <v>-0.05016111152946415</v>
+      </c>
+      <c r="Z5">
+        <v>10.15238433865231</v>
+      </c>
+      <c r="AA5">
+        <v>-0.01971651239048301</v>
+      </c>
+      <c r="AB5">
+        <v>0.04540564274371391</v>
+      </c>
+      <c r="AC5">
+        <v>-0.06512215513419692</v>
+      </c>
+      <c r="AD5">
+        <v>16.5</v>
+      </c>
+      <c r="AE5">
+        <v>0.7989440670169794</v>
+      </c>
+      <c r="AF5">
+        <v>17.29894406701698</v>
+      </c>
+      <c r="AG5">
+        <v>-48.40105593298303</v>
+      </c>
+      <c r="AH5">
+        <v>0.04538035673041037</v>
+      </c>
+      <c r="AI5">
+        <v>0.1888552782263567</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.1534111503165661</v>
+      </c>
+      <c r="AK5">
+        <v>-1.86884283033852</v>
+      </c>
+      <c r="AL5">
+        <v>0.109</v>
+      </c>
+      <c r="AM5">
+        <v>0.082</v>
+      </c>
+      <c r="AN5">
+        <v>305.5555555555553</v>
+      </c>
+      <c r="AO5">
+        <v>-10.55045871559633</v>
+      </c>
+      <c r="AP5">
+        <v>-896.315850610796</v>
+      </c>
+      <c r="AQ5">
+        <v>-14.02439024390244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Xishui Strong Year Co.,Ltd Inner Mongolia (SHSE:600291)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.08039999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.06923397747810371</v>
-      </c>
-      <c r="H4">
-        <v>0.06923397747810371</v>
-      </c>
-      <c r="I4">
-        <v>-0.09560220584827842</v>
-      </c>
-      <c r="J4">
-        <v>-0.09560220584827842</v>
-      </c>
-      <c r="K4">
-        <v>-222.2</v>
-      </c>
-      <c r="L4">
-        <v>-0.1029704805598035</v>
-      </c>
-      <c r="M4">
-        <v>62.4</v>
-      </c>
-      <c r="N4">
-        <v>0.04421455395734429</v>
-      </c>
-      <c r="O4">
-        <v>-0.2808280828082808</v>
-      </c>
-      <c r="P4">
-        <v>62.4</v>
-      </c>
-      <c r="Q4">
-        <v>0.04421455395734429</v>
-      </c>
-      <c r="R4">
-        <v>-0.2808280828082808</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>155.9</v>
-      </c>
-      <c r="V4">
-        <v>0.1104655282363778</v>
-      </c>
-      <c r="W4">
-        <v>-0.1200951248513674</v>
-      </c>
-      <c r="X4">
-        <v>0.08787161503531071</v>
-      </c>
-      <c r="Y4">
-        <v>-0.2079667398866781</v>
-      </c>
-      <c r="Z4">
-        <v>0.8723369850830739</v>
-      </c>
-      <c r="AA4">
-        <v>-0.08339734001697861</v>
-      </c>
-      <c r="AB4">
-        <v>0.05257772495810811</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1359750649750867</v>
-      </c>
-      <c r="AD4">
-        <v>2212.3</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>2212.3</v>
-      </c>
-      <c r="AG4">
-        <v>2056.4</v>
-      </c>
-      <c r="AH4">
-        <v>0.6105254443095264</v>
-      </c>
-      <c r="AI4">
-        <v>0.3813324140308541</v>
-      </c>
-      <c r="AJ4">
-        <v>0.5930155434437813</v>
-      </c>
-      <c r="AK4">
-        <v>0.3642482641349015</v>
-      </c>
-      <c r="AL4">
-        <v>167.1</v>
-      </c>
-      <c r="AM4">
-        <v>167.1</v>
-      </c>
-      <c r="AN4">
-        <v>-11.61312335958005</v>
-      </c>
-      <c r="AO4">
-        <v>-1.234590065828845</v>
-      </c>
-      <c r="AP4">
-        <v>-10.79475065616798</v>
-      </c>
-      <c r="AQ4">
-        <v>-1.234590065828845</v>
+      <c r="D6">
+        <v>0.0522</v>
+      </c>
+      <c r="G6">
+        <v>-0.05965025211887136</v>
+      </c>
+      <c r="H6">
+        <v>-0.05965025211887136</v>
+      </c>
+      <c r="I6">
+        <v>-1.773548975431821</v>
+      </c>
+      <c r="J6">
+        <v>-1.773548975431821</v>
+      </c>
+      <c r="K6">
+        <v>-1309</v>
+      </c>
+      <c r="L6">
+        <v>-0.3510889389550477</v>
+      </c>
+      <c r="M6">
+        <v>16.9</v>
+      </c>
+      <c r="N6">
+        <v>0.01780259138312441</v>
+      </c>
+      <c r="O6">
+        <v>-0.01291061879297173</v>
+      </c>
+      <c r="P6">
+        <v>16.9</v>
+      </c>
+      <c r="Q6">
+        <v>0.01780259138312441</v>
+      </c>
+      <c r="R6">
+        <v>-0.01291061879297173</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1.41</v>
+      </c>
+      <c r="V6">
+        <v>0.001485304961550616</v>
+      </c>
+      <c r="W6">
+        <v>-0.8599395611614767</v>
+      </c>
+      <c r="X6">
+        <v>0.04603864290478696</v>
+      </c>
+      <c r="Y6">
+        <v>-0.9059782040662637</v>
+      </c>
+      <c r="Z6">
+        <v>1.077883781439722</v>
+      </c>
+      <c r="AA6">
+        <v>-1.911679676206996</v>
+      </c>
+      <c r="AB6">
+        <v>0.04521670851787577</v>
+      </c>
+      <c r="AC6">
+        <v>-1.956896384724872</v>
+      </c>
+      <c r="AD6">
+        <v>36.8</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>36.8</v>
+      </c>
+      <c r="AG6">
+        <v>35.39</v>
+      </c>
+      <c r="AH6">
+        <v>0.03731873035189129</v>
+      </c>
+      <c r="AI6">
+        <v>0.1469061876247505</v>
+      </c>
+      <c r="AJ6">
+        <v>0.03594024515329698</v>
+      </c>
+      <c r="AK6">
+        <v>0.1420771608655506</v>
+      </c>
+      <c r="AL6">
+        <v>29.2</v>
+      </c>
+      <c r="AM6">
+        <v>29.2</v>
+      </c>
+      <c r="AN6">
+        <v>-0.005574828437684628</v>
+      </c>
+      <c r="AO6">
+        <v>-226.4554794520548</v>
+      </c>
+      <c r="AP6">
+        <v>-0.005361227674175516</v>
+      </c>
+      <c r="AQ6">
+        <v>-226.4554794520548</v>
       </c>
     </row>
   </sheetData>
